--- a/linreg/rifreg2bw_coefs_3_blk1.xlsx
+++ b/linreg/rifreg2bw_coefs_3_blk1.xlsx
@@ -153,13 +153,13 @@
         <v>0.074619806173859077</v>
       </c>
       <c r="C2">
-        <v>0.0059803424212956551</v>
+        <v>0.0064018344450792568</v>
       </c>
       <c r="D2">
-        <v>0.062898304660491913</v>
+        <v>0.062072178153578406</v>
       </c>
       <c r="E2">
-        <v>0.08634130768722624</v>
+        <v>0.087167434194139748</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +170,13 @@
         <v>0.050788045898274167</v>
       </c>
       <c r="C3">
-        <v>0.0047572304404913434</v>
+        <v>0.0049528816253196131</v>
       </c>
       <c r="D3">
-        <v>0.04146390235397085</v>
+        <v>0.04108042718816337</v>
       </c>
       <c r="E3">
-        <v>0.060112189442577485</v>
+        <v>0.060495664608384965</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +187,13 @@
         <v>0.12793345735002437</v>
       </c>
       <c r="C4">
-        <v>0.0059476231108565253</v>
+        <v>0.0060960725181264707</v>
       </c>
       <c r="D4">
-        <v>0.11627608585126355</v>
+        <v>0.11598512425920204</v>
       </c>
       <c r="E4">
-        <v>0.13959082884878521</v>
+        <v>0.1398817904408467</v>
       </c>
     </row>
     <row r="5">
@@ -204,13 +204,13 @@
         <v>0.082478957714445494</v>
       </c>
       <c r="C5">
-        <v>0.0047327401238741297</v>
+        <v>0.0047255633040493789</v>
       </c>
       <c r="D5">
-        <v>0.073202815045954439</v>
+        <v>0.073216881570390163</v>
       </c>
       <c r="E5">
-        <v>0.09175510038293655</v>
+        <v>0.091741033858500826</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>0.183952203653893</v>
       </c>
       <c r="C6">
-        <v>0.006884099725609277</v>
+        <v>0.0076090075985797805</v>
       </c>
       <c r="D6">
-        <v>0.17045933323487483</v>
+        <v>0.16903851012283727</v>
       </c>
       <c r="E6">
-        <v>0.19744507407291118</v>
+        <v>0.19886589718494874</v>
       </c>
     </row>
     <row r="7">
@@ -238,13 +238,13 @@
         <v>0.12556927972757431</v>
       </c>
       <c r="C7">
-        <v>0.0054880578489778335</v>
+        <v>0.0047428353121200971</v>
       </c>
       <c r="D7">
-        <v>0.1148127187824155</v>
+        <v>0.11627335054979185</v>
       </c>
       <c r="E7">
-        <v>0.13632584067273312</v>
+        <v>0.13486520890535678</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +255,13 @@
         <v>0.22132743036956387</v>
       </c>
       <c r="C8">
-        <v>0.0073018756518106508</v>
+        <v>0.0085249425335873277</v>
       </c>
       <c r="D8">
-        <v>0.20701571701376337</v>
+        <v>0.20461849971486018</v>
       </c>
       <c r="E8">
-        <v>0.23563914372536438</v>
+        <v>0.23803636102426756</v>
       </c>
     </row>
     <row r="9">
@@ -272,13 +272,13 @@
         <v>0.16898687685979105</v>
       </c>
       <c r="C9">
-        <v>0.0062313757321755562</v>
+        <v>0.0063052148017511567</v>
       </c>
       <c r="D9">
-        <v>0.15677341725717148</v>
+        <v>0.15662869311725164</v>
       </c>
       <c r="E9">
-        <v>0.18120033646241063</v>
+        <v>0.18134506060233047</v>
       </c>
     </row>
     <row r="10">
@@ -289,13 +289,13 @@
         <v>0.26645881240744085</v>
       </c>
       <c r="C10">
-        <v>0.0081761604110287163</v>
+        <v>0.010106448920241396</v>
       </c>
       <c r="D10">
-        <v>0.25043349648403551</v>
+        <v>0.24665012120415147</v>
       </c>
       <c r="E10">
-        <v>0.28248412833084618</v>
+        <v>0.28626750361073022</v>
       </c>
     </row>
     <row r="11">
@@ -306,13 +306,13 @@
         <v>0.19673271647883264</v>
       </c>
       <c r="C11">
-        <v>0.0066465316605747197</v>
+        <v>0.0079748456748932814</v>
       </c>
       <c r="D11">
-        <v>0.1837055537104563</v>
+        <v>0.18110206609379653</v>
       </c>
       <c r="E11">
-        <v>0.20975987924720899</v>
+        <v>0.21236336686386875</v>
       </c>
     </row>
     <row r="12">
@@ -323,13 +323,13 @@
         <v>0.28787326129835478</v>
       </c>
       <c r="C12">
-        <v>0.0089956560419270967</v>
+        <v>0.011083524908727353</v>
       </c>
       <c r="D12">
-        <v>0.27024172977706529</v>
+        <v>0.2661494961961311</v>
       </c>
       <c r="E12">
-        <v>0.30550479281964427</v>
+        <v>0.30959702640057846</v>
       </c>
     </row>
     <row r="13">
@@ -340,13 +340,13 @@
         <v>0.22062049164759004</v>
       </c>
       <c r="C13">
-        <v>0.007664595092812366</v>
+        <v>0.0081490288485744616</v>
       </c>
       <c r="D13">
-        <v>0.20559793056960196</v>
+        <v>0.20464844327170154</v>
       </c>
       <c r="E13">
-        <v>0.23564305272557812</v>
+        <v>0.23659254002347854</v>
       </c>
     </row>
     <row r="14">
@@ -357,13 +357,13 @@
         <v>0.29137401304292238</v>
       </c>
       <c r="C14">
-        <v>0.010076759643364422</v>
+        <v>0.010194617294331217</v>
       </c>
       <c r="D14">
-        <v>0.2716235129730713</v>
+        <v>0.27139251137870607</v>
       </c>
       <c r="E14">
-        <v>0.31112451311277345</v>
+        <v>0.31135551470713868</v>
       </c>
     </row>
     <row r="15">
@@ -374,13 +374,13 @@
         <v>0.21050071951607632</v>
       </c>
       <c r="C15">
-        <v>0.0086740601170706682</v>
+        <v>0.0088177616774583311</v>
       </c>
       <c r="D15">
-        <v>0.19349961295729251</v>
+        <v>0.19321795874832454</v>
       </c>
       <c r="E15">
-        <v>0.22750182607486014</v>
+        <v>0.22778348028382811</v>
       </c>
     </row>
     <row r="16">
@@ -391,13 +391,13 @@
         <v>0.22577876943876851</v>
       </c>
       <c r="C16">
-        <v>0.011325977874104045</v>
+        <v>0.012985970856798304</v>
       </c>
       <c r="D16">
-        <v>0.20357979529325271</v>
+        <v>0.20032620061788059</v>
       </c>
       <c r="E16">
-        <v>0.24797774358428432</v>
+        <v>0.25123133825965643</v>
       </c>
     </row>
     <row r="17">
@@ -408,13 +408,13 @@
         <v>0.17463543129243581</v>
       </c>
       <c r="C17">
-        <v>0.010250534421200727</v>
+        <v>0.010273851536478657</v>
       </c>
       <c r="D17">
-        <v>0.15454444441578868</v>
+        <v>0.15449874300766686</v>
       </c>
       <c r="E17">
-        <v>0.19472641816908293</v>
+        <v>0.19477211957720475</v>
       </c>
     </row>
     <row r="18">
@@ -425,13 +425,13 @@
         <v>0.08823851372289454</v>
       </c>
       <c r="C18">
-        <v>0.014195743613102897</v>
+        <v>0.01521872914499676</v>
       </c>
       <c r="D18">
-        <v>0.060414784156535048</v>
+        <v>0.058409727319396823</v>
       </c>
       <c r="E18">
-        <v>0.11606224328925403</v>
+        <v>0.11806730012639226</v>
       </c>
     </row>
     <row r="19">
@@ -442,13 +442,13 @@
         <v>0.090105712398756865</v>
       </c>
       <c r="C19">
-        <v>0.013418533502810312</v>
+        <v>0.012860236883300791</v>
       </c>
       <c r="D19">
-        <v>0.063805466047578613</v>
+        <v>0.064899724121835034</v>
       </c>
       <c r="E19">
-        <v>0.11640595874993512</v>
+        <v>0.1153117006756787</v>
       </c>
     </row>
   </sheetData>
